--- a/data/case_ehr.xlsx
+++ b/data/case_ehr.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>id</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>get</t>
-  </si>
-  <si>
-    <t>post</t>
   </si>
   <si>
     <t>董事会秘书</t>
@@ -90,9 +87,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -133,14 +130,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,8 +165,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,6 +190,52 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,13 +249,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -189,76 +256,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -275,144 +272,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -420,42 +453,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,13 +496,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,21 +537,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,21 +559,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -581,6 +567,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -589,10 +586,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,16 +598,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,112 +619,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,7 +1101,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1168,37 +1165,37 @@
         <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" ht="16.5" spans="1:10">
       <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>

--- a/data/case_ehr.xlsx
+++ b/data/case_ehr.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>id</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>rows</t>
+  </si>
+  <si>
+    <t>hx0003</t>
+  </si>
+  <si>
+    <t>测试3</t>
+  </si>
+  <si>
+    <t>测试3接口</t>
   </si>
 </sst>
 </file>
@@ -86,10 +95,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -136,10 +145,101 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -151,28 +251,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -187,75 +265,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -272,187 +281,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,6 +505,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -526,25 +568,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -558,26 +587,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -586,10 +595,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,16 +607,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,112 +628,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1096,12 +1105,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1201,14 +1210,28 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" ht="16.5" spans="1:10">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
@@ -1661,6 +1684,7 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="http://ehrt.g5air.com:8001/api/class/view_org_dept_position"/>
     <hyperlink ref="D3" r:id="rId2" display="http://ehrt.g5air.com:8001/api/class/sal_adjust"/>
+    <hyperlink ref="D4" r:id="rId2" display="http://ehrt.g5air.com:8001/api/class/sal_adjust"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1669,7 +1693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1686,7 +1710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/data/case_ehr.xlsx
+++ b/data/case_ehr.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>id</t>
   </si>
@@ -63,7 +63,7 @@
     <t>get</t>
   </si>
   <si>
-    <t>董事会秘书</t>
+    <t>董啦啦</t>
   </si>
   <si>
     <t>hx0002</t>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>测试3接口</t>
+  </si>
+  <si>
+    <t>"id"</t>
   </si>
 </sst>
 </file>
@@ -95,10 +98,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -139,7 +142,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,37 +230,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,67 +268,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -281,13 +284,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,43 +440,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,121 +458,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,6 +541,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -567,26 +590,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -595,10 +598,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,16 +610,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,112 +631,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1110,7 +1113,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1118,7 +1121,7 @@
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="48.25" customWidth="1"/>
+    <col min="4" max="4" width="62.875" customWidth="1"/>
     <col min="5" max="5" width="14.875" customWidth="1"/>
     <col min="6" max="7" width="15.125" customWidth="1"/>
     <col min="8" max="8" width="21.875" customWidth="1"/>
@@ -1230,7 +1233,7 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>

--- a/data/case_ehr.xlsx
+++ b/data/case_ehr.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="24180" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
     <t>测试1接口</t>
   </si>
   <si>
-    <t>http://ehrt.g5air.com:8001/api/class/view_org_dept_position</t>
+    <t>http://ehrt.r.com:8001/api/class/view_org_dept_position</t>
   </si>
   <si>
     <t>get</t>
@@ -75,7 +75,7 @@
     <t>测试2接口</t>
   </si>
   <si>
-    <t>http://ehrt.g5air.com:8001/api/class/sal_adjust</t>
+    <t>http://ehrt.g.com:8001/api/class/sal_adjust</t>
   </si>
   <si>
     <t>rows</t>
@@ -99,9 +99,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -156,13 +156,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -171,6 +164,66 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,33 +237,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,53 +268,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -284,187 +284,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,6 +493,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -511,8 +529,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,35 +546,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,6 +579,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -598,10 +598,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -610,16 +610,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,112 +631,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1685,9 +1685,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://ehrt.g5air.com:8001/api/class/view_org_dept_position"/>
-    <hyperlink ref="D3" r:id="rId2" display="http://ehrt.g5air.com:8001/api/class/sal_adjust"/>
-    <hyperlink ref="D4" r:id="rId2" display="http://ehrt.g5air.com:8001/api/class/sal_adjust"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://ehrt.r.com:8001/api/class/view_org_dept_position" tooltip="http://ehrt.r.com:8001/api/class/view_org_dept_position"/>
+    <hyperlink ref="D3" r:id="rId2" display="http://ehrt.g.com:8001/api/class/sal_adjust" tooltip="http://ehrt.g.com:8001/api/class/sal_adjust"/>
+    <hyperlink ref="D4" r:id="rId2" display="http://ehrt.g.com:8001/api/class/sal_adjust" tooltip="http://ehrt.g.com:8001/api/class/sal_adjust"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
